--- a/TableSupp/policy-Spontaneous-objective_matrix.xlsx
+++ b/TableSupp/policy-Spontaneous-objective_matrix.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.47</v>
+        <v>16.55</v>
       </c>
       <c r="C2">
-        <v>38800.8</v>
+        <v>38780</v>
       </c>
       <c r="D2">
-        <v>3122</v>
+        <v>3114.74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.96</v>
+        <v>18.94</v>
       </c>
       <c r="C3">
-        <v>38847.5</v>
+        <v>38779.99</v>
       </c>
       <c r="D3">
-        <v>3056.8</v>
+        <v>3244.31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.73</v>
+        <v>16.74</v>
       </c>
       <c r="C4">
-        <v>38785.2</v>
+        <v>38779.99</v>
       </c>
       <c r="D4">
-        <v>2977.85</v>
+        <v>2983.55</v>
       </c>
     </row>
   </sheetData>

--- a/TableSupp/policy-Spontaneous-objective_matrix.xlsx
+++ b/TableSupp/policy-Spontaneous-objective_matrix.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.55</v>
+        <v>20.17</v>
       </c>
       <c r="C2">
-        <v>38780</v>
+        <v>38779.99</v>
       </c>
       <c r="D2">
-        <v>3114.74</v>
+        <v>3030.63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.94</v>
+        <v>18.07</v>
       </c>
       <c r="C3">
-        <v>38779.99</v>
+        <v>38780</v>
       </c>
       <c r="D3">
-        <v>3244.31</v>
+        <v>3050.66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.74</v>
+        <v>17.59</v>
       </c>
       <c r="C4">
-        <v>38779.99</v>
+        <v>36867.86</v>
       </c>
       <c r="D4">
-        <v>2983.55</v>
+        <v>2942.46</v>
       </c>
     </row>
   </sheetData>

--- a/TableSupp/policy-Spontaneous-objective_matrix.xlsx
+++ b/TableSupp/policy-Spontaneous-objective_matrix.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.17</v>
+        <v>15.55</v>
       </c>
       <c r="C2">
-        <v>38779.99</v>
+        <v>38780</v>
       </c>
       <c r="D2">
-        <v>3030.63</v>
+        <v>311.47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.07</v>
+        <v>16.15</v>
       </c>
       <c r="C3">
-        <v>38780</v>
+        <v>38779.99</v>
       </c>
       <c r="D3">
-        <v>3050.66</v>
+        <v>319.49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.59</v>
+        <v>15.74</v>
       </c>
       <c r="C4">
-        <v>36867.86</v>
+        <v>38779.99</v>
       </c>
       <c r="D4">
-        <v>2942.46</v>
+        <v>298.36</v>
       </c>
     </row>
   </sheetData>

--- a/TableSupp/policy-Spontaneous-objective_matrix.xlsx
+++ b/TableSupp/policy-Spontaneous-objective_matrix.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.55</v>
+        <v>20.17</v>
       </c>
       <c r="C2">
-        <v>38780</v>
+        <v>38779.99</v>
       </c>
       <c r="D2">
-        <v>311.47</v>
+        <v>303.06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.15</v>
+        <v>18.07</v>
       </c>
       <c r="C3">
-        <v>38779.99</v>
+        <v>38780</v>
       </c>
       <c r="D3">
-        <v>319.49</v>
+        <v>305.06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74</v>
+        <v>17.59</v>
       </c>
       <c r="C4">
-        <v>38779.99</v>
+        <v>36867.86</v>
       </c>
       <c r="D4">
-        <v>298.36</v>
+        <v>294.24</v>
       </c>
     </row>
   </sheetData>
